--- a/biology/Médecine/Morphée_(armée)/Morphée_(armée).xlsx
+++ b/biology/Médecine/Morphée_(armée)/Morphée_(armée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morph%C3%A9e_(arm%C3%A9e)</t>
+          <t>Morphée_(armée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acronyme Morphée désigne un « module de réanimation pour patient à haute élongation d'évacuation ». Il s'agit d'un module qui permet d'assurer l'évacuation aéroportée simultanée d'une dizaine de blessés graves, dans les mêmes conditions qu'un service de soins intensifs[1], à bord des avions ravitailleurs de l'armée de l'air française comme le Boeing C-135 ou l'Airbus A330 Phénix. Conçu pour être utilisé dans le cadre des OPEX[1], le dispositif Morphée a également été utilisé sur le territoire national lors de la pandémie de maladie à coronavirus de 2020 en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acronyme Morphée désigne un « module de réanimation pour patient à haute élongation d'évacuation ». Il s'agit d'un module qui permet d'assurer l'évacuation aéroportée simultanée d'une dizaine de blessés graves, dans les mêmes conditions qu'un service de soins intensifs, à bord des avions ravitailleurs de l'armée de l'air française comme le Boeing C-135 ou l'Airbus A330 Phénix. Conçu pour être utilisé dans le cadre des OPEX, le dispositif Morphée a également été utilisé sur le territoire national lors de la pandémie de maladie à coronavirus de 2020 en France.
 </t>
         </is>
       </c>
